--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_resonant.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -552,22 +552,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092861</v>
+        <v>0.952627964802082</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648096813</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>8.619094964871716E-11</v>
+        <v>-4.010741462182681E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.733333349138041</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292907</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.41510081469633E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625394</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663872</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888139238429756E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888163762621318E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.093471052895229</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.060892992359799</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.087229555233819</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.01852472695075</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-90.38582100567785</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>150.7988511679325</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="D3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="G3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.074801634005769</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.898058267835772</v>
+        <v>0.7109795688765316</v>
       </c>
       <c r="P3">
-        <v>1.03104599918223</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>24.65619634488695</v>
+        <v>17.92198046293676</v>
       </c>
       <c r="R3">
-        <v>-93.08699457050156</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>154.2225716896776</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.090554001197685</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>1.032377592742154</v>
+        <v>0.7109795688760385</v>
       </c>
       <c r="P4">
-        <v>1.076379949714971</v>
+        <v>0.9171656569531274</v>
       </c>
       <c r="Q4">
-        <v>28.24673185381133</v>
+        <v>17.92198046336739</v>
       </c>
       <c r="R4">
-        <v>-90.8947219078925</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>151.3471471228641</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P5">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R5">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P6">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.093471052895229</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.060892992359799</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.087229555233819</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.01852472695075</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-90.38582100567785</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>150.7988511679325</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="D3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="G3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.074801634005769</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.898058267835772</v>
+        <v>0.7109795688765316</v>
       </c>
       <c r="P3">
-        <v>1.03104599918223</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>24.65619634488695</v>
+        <v>17.92198046293676</v>
       </c>
       <c r="R3">
-        <v>-93.08699457050156</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>154.2225716896776</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.090554001197685</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>1.032377592742154</v>
+        <v>0.7109795688760385</v>
       </c>
       <c r="P4">
-        <v>1.076379949714971</v>
+        <v>0.9171656569531274</v>
       </c>
       <c r="Q4">
-        <v>28.24673185381133</v>
+        <v>17.92198046336739</v>
       </c>
       <c r="R4">
-        <v>-90.8947219078925</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>151.3471471228641</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P5">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R5">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P6">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851681</v>
+        <v>0.8660254037841224</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>2.055190930227014E-10</v>
+        <v>3.070953155783125E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631723</v>
+        <v>0.8660254037597849</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368617</v>
+        <v>2.755392155813874E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552726</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972358</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663612511919851E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663624186873044E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851681</v>
+        <v>0.8660254037841224</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>2.055190930227014E-10</v>
+        <v>3.070953155783125E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631723</v>
+        <v>0.8660254037597849</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368617</v>
+        <v>2.755392155813874E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552726</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972358</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663612511919851E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663624186873044E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.989047885536703</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9494298235603638</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9861504829633156</v>
+        <v>0.9648695716021194</v>
       </c>
       <c r="Q2">
-        <v>28.68335838929067</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-90.19939743700446</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>151.2245009153358</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="D3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="G3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9581738593713774</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.7570026426538632</v>
+        <v>0.6348876951823897</v>
       </c>
       <c r="P3">
-        <v>0.9318955712475537</v>
+        <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>23.24976676176108</v>
+        <v>17.57011779536513</v>
       </c>
       <c r="R3">
-        <v>-92.17091768534125</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
-        <v>156.0542616190346</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9845599273626018</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.9188694917302177</v>
+        <v>0.6348876951946469</v>
       </c>
       <c r="P4">
-        <v>0.976115936171922</v>
+        <v>0.8307352055979549</v>
       </c>
       <c r="Q4">
-        <v>27.81475647128665</v>
+        <v>17.57011779629439</v>
       </c>
       <c r="R4">
-        <v>-90.59603200400132</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
-        <v>151.9234409806961</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P5">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P6">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.989047885536703</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9494298235603638</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9861504829633156</v>
+        <v>0.9648695716021194</v>
       </c>
       <c r="Q2">
-        <v>28.68335838929067</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-90.19939743700446</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>151.2245009153358</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="D3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="G3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9581738593713774</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.7570026426538632</v>
+        <v>0.6348876951823897</v>
       </c>
       <c r="P3">
-        <v>0.9318955712475537</v>
+        <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>23.24976676176108</v>
+        <v>17.57011779536513</v>
       </c>
       <c r="R3">
-        <v>-92.17091768534125</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
-        <v>156.0542616190346</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9845599273626018</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.9188694917302177</v>
+        <v>0.6348876951946469</v>
       </c>
       <c r="P4">
-        <v>0.976115936171922</v>
+        <v>0.8307352055979549</v>
       </c>
       <c r="Q4">
-        <v>27.81475647128665</v>
+        <v>17.57011779629439</v>
       </c>
       <c r="R4">
-        <v>-90.59603200400132</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
-        <v>151.9234409806961</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P5">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P6">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000169</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058338</v>
+        <v>49.29479450528559</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>0.885664674454433</v>
+        <v>0.6144432972249565</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>29.6194962833779</v>
+        <v>23.93807817703963</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000347</v>
+        <v>-89.99999999999736</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.10000002384184</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.93807817967975</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448578</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000169</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058338</v>
+        <v>49.29479450528559</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>0.885664674454433</v>
+        <v>0.6144432972249565</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>29.6194962833779</v>
+        <v>23.93807817703963</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000347</v>
+        <v>-89.99999999999736</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.10000002384184</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.93807817967975</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448578</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.9568525387400529</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000595</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427088</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446286</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166162</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4427,22 +4427,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.9568525387400529</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000595</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427088</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446286</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166162</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.9205079536484</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.59167103998539</v>
+        <v>30.89827671951143</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.844137727958634</v>
+        <v>0.7181269486848424</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576398</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660851</v>
+        <v>19.22824764083607</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999777</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.718126948697527</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.9999999999989708</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434915</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.70550776858259</v>
+        <v>19.22824764309009</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999504</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.9205079536484</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.59167103998539</v>
+        <v>30.89827671951143</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.844137727958634</v>
+        <v>0.7181269486848424</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576398</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660851</v>
+        <v>19.22824764083607</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999777</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.718126948697527</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.9999999999989708</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434915</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.70550776858259</v>
+        <v>19.22824764309009</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999504</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880167</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271658</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421808</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696597</v>
+        <v>27.67272062331512</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525122</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389994</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880167</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271658</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421808</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696597</v>
+        <v>27.67272062331512</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525122</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389994</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525941</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314653</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.34577989258121</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153994</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.40202428962954</v>
+        <v>-9.283488353327417</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104102</v>
+        <v>2.917997876526144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.00085880502582</v>
+        <v>0.8708416185120122</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750355</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423893</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624975</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836062</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789398</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836063</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789415</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525941</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314653</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.34577989258121</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153994</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.40202428962954</v>
+        <v>-9.283488353327417</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104102</v>
+        <v>2.917997876526144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.00085880502582</v>
+        <v>0.8708416185120122</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750355</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423893</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624975</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836062</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789398</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836063</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789415</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.092177903652934</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.078560055256258</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.089909805515241</v>
+        <v>1.073420542971325</v>
       </c>
       <c r="Q2">
-        <v>29.49023960247584</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.23666155032254</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>150.2459170073016</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.59659452480627</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.421579535282145</v>
+        <v>1.211666286235113</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.43588557367165</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>16.41498654739219</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.06278335912045</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9891793628955214</v>
+        <v>0.8723446855807017</v>
       </c>
       <c r="P3">
-        <v>1.045949625268017</v>
+        <v>0.9600343016410946</v>
       </c>
       <c r="Q3">
-        <v>27.13325974900417</v>
+        <v>21.17428113068096</v>
       </c>
       <c r="R3">
-        <v>-91.69953437667313</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>151.1900303807082</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>1.145512290512554</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.087295498353202</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>1.062959741151789</v>
+        <v>0.872344685580399</v>
       </c>
       <c r="P4">
-        <v>1.08193225533879</v>
+        <v>0.96003430164727</v>
       </c>
       <c r="Q4">
-        <v>29.0663109843595</v>
+        <v>21.17428113115402</v>
       </c>
       <c r="R4">
-        <v>-90.52711984668144</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>150.3834595079708</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002384269</v>
+        <v>1.056537320418301</v>
       </c>
       <c r="O6">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.092177903652934</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.078560055256258</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.089909805515241</v>
+        <v>1.073420542971325</v>
       </c>
       <c r="Q2">
-        <v>29.49023960247584</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.23666155032254</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>150.2459170073016</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.59659452480627</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.421579535282145</v>
+        <v>1.211666286235113</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.43588557367165</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>16.41498654739219</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.06278335912045</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9891793628955214</v>
+        <v>0.8723446855807017</v>
       </c>
       <c r="P3">
-        <v>1.045949625268017</v>
+        <v>0.9600343016410946</v>
       </c>
       <c r="Q3">
-        <v>27.13325974900417</v>
+        <v>21.17428113068096</v>
       </c>
       <c r="R3">
-        <v>-91.69953437667313</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>151.1900303807082</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>1.145512290512554</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.087295498353202</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>1.062959741151789</v>
+        <v>0.872344685580399</v>
       </c>
       <c r="P4">
-        <v>1.08193225533879</v>
+        <v>0.96003430164727</v>
       </c>
       <c r="Q4">
-        <v>29.0663109843595</v>
+        <v>21.17428113115402</v>
       </c>
       <c r="R4">
-        <v>-90.52711984668144</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>150.3834595079708</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002384269</v>
+        <v>1.056537320418301</v>
       </c>
       <c r="O6">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782292</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.224926238975</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.255469890763209</v>
+        <v>3.420873634629112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437978</v>
+        <v>39.50084627633623</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469922</v>
+        <v>0.8383203831023534</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022646</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851813</v>
+        <v>-5.989874420578567</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.532218402085469</v>
+        <v>1.541818903287513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360203</v>
+        <v>0.8383203830713345</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332807</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.921061297676768</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558402</v>
+        <v>-5.989874417367663</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297383</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297388</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8428,22 +8428,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782292</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.224926238975</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.255469890763209</v>
+        <v>3.420873634629112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437978</v>
+        <v>39.50084627633623</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469922</v>
+        <v>0.8383203831023534</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022646</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851813</v>
+        <v>-5.989874420578567</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.532218402085469</v>
+        <v>1.541818903287513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360203</v>
+        <v>0.8383203830713345</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332807</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.921061297676768</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558402</v>
+        <v>-5.989874417367663</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297383</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297388</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890910045655699</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.971246971741263</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9888453263640931</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.2829555776831</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.13866686470811</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.4649615367157</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.398337465277359</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.163220233293772</v>
+        <v>1.011025655018907</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.14661023991644</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>13.43171029637957</v>
+        <v>11.67431868165567</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9520850263111387</v>
+        <v>0.9727552564516329</v>
       </c>
       <c r="O3">
-        <v>0.8618494835872509</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9446139127322337</v>
+        <v>0.8786293331945181</v>
       </c>
       <c r="Q3">
-        <v>26.23196055764161</v>
+        <v>20.76298901305287</v>
       </c>
       <c r="R3">
-        <v>-91.23559782375305</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>152.1817448625048</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.8213292257179381</v>
+        <v>0.8163878929598345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9835634445070006</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.9539031440605305</v>
+        <v>0.784852101421415</v>
       </c>
       <c r="P4">
-        <v>0.9813829289617835</v>
+        <v>0.8786293332052801</v>
       </c>
       <c r="Q4">
-        <v>28.78497002029057</v>
+        <v>20.76298901387266</v>
       </c>
       <c r="R4">
-        <v>-90.37209378507785</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>150.699849065203</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O5">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P5">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S5">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O6">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239402</v>
       </c>
       <c r="P6">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S6">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890910045655699</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.971246971741263</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9888453263640931</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.2829555776831</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.13866686470811</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.4649615367157</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.398337465277359</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.163220233293772</v>
+        <v>1.011025655018907</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.14661023991644</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>13.43171029637957</v>
+        <v>11.67431868165567</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9520850263111387</v>
+        <v>0.9727552564516329</v>
       </c>
       <c r="O3">
-        <v>0.8618494835872509</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9446139127322337</v>
+        <v>0.8786293331945181</v>
       </c>
       <c r="Q3">
-        <v>26.23196055764161</v>
+        <v>20.76298901305287</v>
       </c>
       <c r="R3">
-        <v>-91.23559782375305</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>152.1817448625048</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.8213292257179381</v>
+        <v>0.8163878929598345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9835634445070006</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.9539031440605305</v>
+        <v>0.784852101421415</v>
       </c>
       <c r="P4">
-        <v>0.9813829289617835</v>
+        <v>0.8786293332052801</v>
       </c>
       <c r="Q4">
-        <v>28.78497002029057</v>
+        <v>20.76298901387266</v>
       </c>
       <c r="R4">
-        <v>-90.37209378507785</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>150.699849065203</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O5">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P5">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S5">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O6">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239402</v>
       </c>
       <c r="P6">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S6">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9734,22 +9734,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9885,22 +9885,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10036,22 +10036,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10187,22 +10187,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10338,22 +10338,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092861</v>
+        <v>0.952627964802082</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648096813</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>8.619094964871716E-11</v>
+        <v>-4.010741462182681E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.733333349138041</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292907</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.41510081469633E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625394</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663872</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888139238429756E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888163762621318E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068049951</v>
+        <v>1.046595068049952</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.8909260930523909</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165218</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033979</v>
+        <v>25.18850204034001</v>
       </c>
       <c r="R2">
         <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071882991</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248669</v>
       </c>
       <c r="D3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248669</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950497</v>
       </c>
       <c r="G3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950497</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>0.952627964802082</v>
+        <v>0.9526279648020808</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025194</v>
+        <v>0.9526279648025212</v>
       </c>
       <c r="Q3">
-        <v>-4.010741462182681E-12</v>
+        <v>-2.640580403030998E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999913</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753109</v>
+        <v>0.9526279647753094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292907</v>
+        <v>0.952627964829293</v>
       </c>
       <c r="Q4">
-        <v>1.41510081469633E-09</v>
+        <v>1.416456164062037E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.999999998575</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663854</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382169</v>
       </c>
       <c r="Q5">
-        <v>1.888139238429756E-09</v>
+        <v>1.889483377866892E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981019</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663871</v>
+        <v>0.9526279647663854</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382169</v>
       </c>
       <c r="Q6">
-        <v>1.888163762621318E-09</v>
+        <v>1.889494626529075E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981034</v>
+        <v>179.9999999981019</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1122,16 @@
         <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.018983908531544</v>
+        <v>1.018983908531545</v>
       </c>
       <c r="P2">
-        <v>1.06511527042063</v>
+        <v>1.065115270420631</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604975</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249687</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753545</v>
       </c>
       <c r="D3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753545</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391873</v>
       </c>
       <c r="G3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391873</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573922</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765316</v>
+        <v>0.7109795688765337</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381442</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293692</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.527958692874</v>
       </c>
       <c r="S3">
-        <v>158.1868465769574</v>
+        <v>158.1868465769573</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561353</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760385</v>
+        <v>0.7109795688760406</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531274</v>
+        <v>0.9171656569531316</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336739</v>
+        <v>17.92198046336755</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.5279586904444</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758762</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581274</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.9219804635111</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896346</v>
       </c>
       <c r="S5">
-        <v>158.1868465770935</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758764</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581274</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351109</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896346</v>
       </c>
       <c r="S6">
-        <v>158.1868465770935</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1489,16 +1489,16 @@
         <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.018983908531544</v>
+        <v>1.018983908531545</v>
       </c>
       <c r="P2">
-        <v>1.06511527042063</v>
+        <v>1.065115270420631</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604975</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249687</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753545</v>
       </c>
       <c r="D3">
-        <v>2.010953897753577</v>
+        <v>2.010953897753545</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391873</v>
       </c>
       <c r="G3">
-        <v>23.2204954839191</v>
+        <v>23.22049548391873</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573922</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765316</v>
+        <v>0.7109795688765337</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381442</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293692</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.527958692874</v>
       </c>
       <c r="S3">
-        <v>158.1868465769574</v>
+        <v>158.1868465769573</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561353</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760385</v>
+        <v>0.7109795688760406</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531274</v>
+        <v>0.9171656569531316</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336739</v>
+        <v>17.92198046336755</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.5279586904444</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758762</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581274</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.9219804635111</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896346</v>
       </c>
       <c r="S5">
-        <v>158.1868465770935</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557163</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758764</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581274</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351109</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896346</v>
       </c>
       <c r="S6">
-        <v>158.1868465770935</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952273</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739506</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888199</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610136</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
         <v>155.5173957043593</v>
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841224</v>
+        <v>0.8660254037841213</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841827</v>
       </c>
       <c r="Q3">
-        <v>3.070953155783125E-11</v>
+        <v>3.117292159099953E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999602</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597849</v>
+        <v>0.8660254037597838</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.86602540380852</v>
       </c>
       <c r="Q4">
-        <v>2.755392155813874E-09</v>
+        <v>2.755881828158734E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972358</v>
+        <v>179.9999999972355</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516713</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166324</v>
       </c>
       <c r="Q5">
-        <v>3.663612511919851E-09</v>
+        <v>3.664110643967994E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963272</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516711</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166324</v>
       </c>
       <c r="Q6">
-        <v>3.663624186873044E-09</v>
+        <v>3.66410731958785E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963272</v>
       </c>
     </row>
   </sheetData>
@@ -2220,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952273</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739506</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888199</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610136</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
         <v>155.5173957043593</v>
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841224</v>
+        <v>0.8660254037841213</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841827</v>
       </c>
       <c r="Q3">
-        <v>3.070953155783125E-11</v>
+        <v>3.117292159099953E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999602</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597849</v>
+        <v>0.8660254037597838</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.86602540380852</v>
       </c>
       <c r="Q4">
-        <v>2.755392155813874E-09</v>
+        <v>2.755881828158734E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972358</v>
+        <v>179.9999999972355</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516713</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166324</v>
       </c>
       <c r="Q5">
-        <v>3.663612511919851E-09</v>
+        <v>3.664110643967994E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963272</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516711</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166324</v>
       </c>
       <c r="Q6">
-        <v>3.663624186873044E-09</v>
+        <v>3.66410731958785E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963272</v>
       </c>
     </row>
   </sheetData>
@@ -2590,16 +2590,16 @@
         <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399002</v>
+        <v>0.9175617791399007</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021196</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412387</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105335014</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210671</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210671</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545562</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545562</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264113</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823897</v>
+        <v>0.6348876951823906</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776825</v>
+        <v>0.8307352055776837</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536513</v>
+        <v>17.57011779536521</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758097</v>
+        <v>-106.9885815758094</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412734</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251237</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.6348876951946482</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979549</v>
+        <v>0.830735205597956</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629439</v>
+        <v>17.57011779629448</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722257</v>
+        <v>-106.9885815722254</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987337</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047136</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660414</v>
+        <v>17.57011779660424</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987338</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047136</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660414</v>
+        <v>17.57011779660424</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -2957,16 +2957,16 @@
         <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399002</v>
+        <v>0.9175617791399007</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021196</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412387</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105335014</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210671</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210671</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545562</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545562</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264113</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823897</v>
+        <v>0.6348876951823906</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776825</v>
+        <v>0.8307352055776837</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536513</v>
+        <v>17.57011779536521</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758097</v>
+        <v>-106.9885815758094</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412734</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251237</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.6348876951946482</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979549</v>
+        <v>0.830735205597956</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629439</v>
+        <v>17.57011779629448</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722257</v>
+        <v>-106.9885815722254</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987337</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047136</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660414</v>
+        <v>17.57011779660424</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987338</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047136</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660414</v>
+        <v>17.57011779660424</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.09941537590143</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.099352379291402</v>
       </c>
       <c r="Q2">
-        <v>29.57860611708429</v>
+        <v>30.02138229047271</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>149.984300041127</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591089</v>
+        <v>0.0324687569033253</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528559</v>
+        <v>0.3749169107677476</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329914</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>1168.900101563066</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319054468839</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694647141</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.107731905396391</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694641546</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249565</v>
+        <v>1.096820847459043</v>
       </c>
       <c r="O3">
-        <v>1.100000023852326</v>
+        <v>1.100000023841888</v>
       </c>
       <c r="P3">
-        <v>1.019342441086347</v>
+        <v>1.096688337059886</v>
       </c>
       <c r="Q3">
-        <v>23.93807817703963</v>
+        <v>30.10390665565431</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999736</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>123.4311965199737</v>
+        <v>149.9080362800296</v>
       </c>
       <c r="T3">
-        <v>4.269054431591089</v>
+        <v>0.0324687569033253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.614443297239881</v>
+        <v>1.096820847459276</v>
       </c>
       <c r="O4">
-        <v>1.100000023852326</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>1.096688337059942</v>
       </c>
       <c r="Q4">
-        <v>23.93807817967975</v>
+        <v>30.10390665565794</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>149.908036280042</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448578</v>
+        <v>1.096820847459354</v>
       </c>
       <c r="O5">
-        <v>1.100000023852326</v>
+        <v>1.100000023841888</v>
       </c>
       <c r="P5">
-        <v>1.019342441052391</v>
+        <v>1.09668833705996</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055971</v>
+        <v>30.10390665565916</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>149.9080362800461</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448579</v>
+        <v>1.096820847459354</v>
       </c>
       <c r="O6">
-        <v>1.100000023852326</v>
+        <v>1.100000023841888</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>1.09668833705996</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055971</v>
+        <v>30.10390665565915</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>149.9080362800461</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.09941537590143</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.099352379291402</v>
       </c>
       <c r="Q2">
-        <v>29.57860611708429</v>
+        <v>30.02138229047271</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>149.984300041127</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591089</v>
+        <v>0.0324687569033253</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528559</v>
+        <v>0.3749169107677476</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329914</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>1168.900101563066</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319054468839</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694647141</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.107731905396391</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694641546</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249565</v>
+        <v>1.096820847459043</v>
       </c>
       <c r="O3">
-        <v>1.100000023852326</v>
+        <v>1.100000023841888</v>
       </c>
       <c r="P3">
-        <v>1.019342441086347</v>
+        <v>1.096688337059886</v>
       </c>
       <c r="Q3">
-        <v>23.93807817703963</v>
+        <v>30.10390665565431</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999736</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>123.4311965199737</v>
+        <v>149.9080362800296</v>
       </c>
       <c r="T3">
-        <v>4.269054431591089</v>
+        <v>0.0324687569033253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.614443297239881</v>
+        <v>1.096820847459276</v>
       </c>
       <c r="O4">
-        <v>1.100000023852326</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>1.096688337059942</v>
       </c>
       <c r="Q4">
-        <v>23.93807817967975</v>
+        <v>30.10390665565794</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>149.908036280042</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448578</v>
+        <v>1.096820847459354</v>
       </c>
       <c r="O5">
-        <v>1.100000023852326</v>
+        <v>1.100000023841888</v>
       </c>
       <c r="P5">
-        <v>1.019342441052391</v>
+        <v>1.09668833705996</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055971</v>
+        <v>30.10390665565916</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>149.9080362800461</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448579</v>
+        <v>1.096820847459354</v>
       </c>
       <c r="O6">
-        <v>1.100000023852326</v>
+        <v>1.100000023841888</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>1.09668833705996</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055971</v>
+        <v>30.10390665565915</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>149.9080362800461</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.099417871342865</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.099364454155591</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>30.02073090484703</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>149.9840873677933</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>0.03205191939160717</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>0.3701036857757717</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329914</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>1168.900101563066</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319054468839</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694647141</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.107731905396391</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694641546</v>
       </c>
       <c r="N3">
-        <v>0.9568525387400529</v>
+        <v>1.09683732349215</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.096752827206896</v>
       </c>
       <c r="Q3">
-        <v>28.34202686749199</v>
+        <v>30.10051729341747</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.5196106427088</v>
+        <v>149.9070983067007</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>0.03205191939160716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446286</v>
+        <v>1.096837323492379</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P4">
-        <v>1.06123325972225</v>
+        <v>1.096752827206948</v>
       </c>
       <c r="Q4">
-        <v>28.3420268679895</v>
+        <v>30.1005172934212</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>149.907098306713</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461545</v>
+        <v>1.096837323492456</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P5">
-        <v>1.061233259720349</v>
+        <v>1.096752827206965</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815532</v>
+        <v>30.10051729342245</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>149.907098306717</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461545</v>
+        <v>1.096837323492456</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P6">
-        <v>1.061233259720349</v>
+        <v>1.096752827206965</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815532</v>
+        <v>30.10051729342244</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999685</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>149.907098306717</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.099417871342865</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.099364454155591</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>30.02073090484703</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>149.9840873677933</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>0.03205191939160717</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>0.3701036857757717</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329914</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>1168.900101563066</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319054468839</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694647141</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.107731905396391</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694641546</v>
       </c>
       <c r="N3">
-        <v>0.9568525387400529</v>
+        <v>1.09683732349215</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.096752827206896</v>
       </c>
       <c r="Q3">
-        <v>28.34202686749199</v>
+        <v>30.10051729341747</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.5196106427088</v>
+        <v>149.9070983067007</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>0.03205191939160716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446286</v>
+        <v>1.096837323492379</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P4">
-        <v>1.06123325972225</v>
+        <v>1.096752827206948</v>
       </c>
       <c r="Q4">
-        <v>28.3420268679895</v>
+        <v>30.1005172934212</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>149.907098306713</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461545</v>
+        <v>1.096837323492456</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P5">
-        <v>1.061233259720349</v>
+        <v>1.096752827206965</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815532</v>
+        <v>30.10051729342245</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>149.907098306717</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461545</v>
+        <v>1.096837323492456</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.100000023841887</v>
       </c>
       <c r="P6">
-        <v>1.061233259720349</v>
+        <v>1.096752827206965</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815532</v>
+        <v>30.10051729342244</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999685</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>149.907098306717</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.93808824098085</v>
+        <v>0.9993918391480615</v>
       </c>
       <c r="O2">
-        <v>0.9999999999958459</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284133</v>
+        <v>0.9993343760239015</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>30.02393454871044</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>149.981766833893</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.67586925722582</v>
+        <v>0.02950952293194766</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951143</v>
+        <v>0.3407466201683484</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227635</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518596413106</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540682413</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594549263</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540674819</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848424</v>
+        <v>0.9969579076442561</v>
       </c>
       <c r="O3">
-        <v>0.9999999999989709</v>
+        <v>1.000000000000033</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>0.9968649965550705</v>
       </c>
       <c r="Q3">
-        <v>19.22824764083607</v>
+        <v>30.10714323242295</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>149.9020676481896</v>
       </c>
       <c r="T3">
-        <v>2.67586925722582</v>
+        <v>0.02950952293194766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.718126948697527</v>
+        <v>0.9969579076445984</v>
       </c>
       <c r="O4">
-        <v>0.9999999999989708</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>0.9968649965552459</v>
       </c>
       <c r="Q4">
-        <v>19.22824764309009</v>
+        <v>30.10714323242258</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999825</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>131.6084190977144</v>
+        <v>149.9020676482064</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7181269487017579</v>
+        <v>0.9969579076447121</v>
       </c>
       <c r="O5">
-        <v>0.9999999999989709</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>0.9968649965553044</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384135</v>
+        <v>30.10714323242248</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999848</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>131.6084190981349</v>
+        <v>149.902067648212</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017579</v>
+        <v>0.9969579076447125</v>
       </c>
       <c r="O6">
-        <v>0.999999999998971</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>0.9968649965553044</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384135</v>
+        <v>30.10714323242247</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999848</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>131.6084190981349</v>
+        <v>149.902067648212</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.93808824098085</v>
+        <v>0.9993918391480615</v>
       </c>
       <c r="O2">
-        <v>0.9999999999958459</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284133</v>
+        <v>0.9993343760239015</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>30.02393454871044</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>149.981766833893</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.67586925722582</v>
+        <v>0.02950952293194766</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951143</v>
+        <v>0.3407466201683484</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227635</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518596413106</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540682413</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594549263</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540674819</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848424</v>
+        <v>0.9969579076442561</v>
       </c>
       <c r="O3">
-        <v>0.9999999999989709</v>
+        <v>1.000000000000033</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>0.9968649965550705</v>
       </c>
       <c r="Q3">
-        <v>19.22824764083607</v>
+        <v>30.10714323242295</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>149.9020676481896</v>
       </c>
       <c r="T3">
-        <v>2.67586925722582</v>
+        <v>0.02950952293194766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.718126948697527</v>
+        <v>0.9969579076445984</v>
       </c>
       <c r="O4">
-        <v>0.9999999999989708</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>0.9968649965552459</v>
       </c>
       <c r="Q4">
-        <v>19.22824764309009</v>
+        <v>30.10714323242258</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999825</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>131.6084190977144</v>
+        <v>149.9020676482064</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7181269487017579</v>
+        <v>0.9969579076447121</v>
       </c>
       <c r="O5">
-        <v>0.9999999999989709</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>0.9968649965553044</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384135</v>
+        <v>30.10714323242248</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999848</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>131.6084190981349</v>
+        <v>149.902067648212</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017579</v>
+        <v>0.9969579076447125</v>
       </c>
       <c r="O6">
-        <v>0.999999999998971</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>0.9968649965553044</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384135</v>
+        <v>30.10714323242247</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999848</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>131.6084190981349</v>
+        <v>149.902067648212</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044824</v>
+        <v>0.9993946793315837</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976996</v>
+        <v>0.9993469262168142</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>30.02319793186275</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>149.9815400541349</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880167</v>
+        <v>0.02912708615102812</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>0.3363306206001102</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227635</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518596413106</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540682413</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594549263</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540674819</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.9969747722418204</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998315</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9969266524854781</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331512</v>
+        <v>30.10361504217573</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>149.9011554453915</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.02912708615102812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.9969747722421582</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998315</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864569</v>
+        <v>0.9969266524856476</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389994</v>
+        <v>30.10361504217562</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>142.9557126462243</v>
+        <v>149.9011554454083</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.882727076151673</v>
+        <v>0.9969747722422708</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998312</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848256</v>
+        <v>0.996926652485704</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>30.10361504217558</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>142.9557126464337</v>
+        <v>149.9011554454139</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.882727076151673</v>
+        <v>0.9969747722422709</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998312</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9969266524857043</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409485</v>
+        <v>30.10361504217557</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>142.9557126464337</v>
+        <v>149.9011554454139</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044824</v>
+        <v>0.9993946793315837</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976996</v>
+        <v>0.9993469262168142</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>30.02319793186275</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>149.9815400541349</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880167</v>
+        <v>0.02912708615102812</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>0.3363306206001102</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227635</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518596413106</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540682413</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594549263</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540674819</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.9969747722418204</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998315</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9969266524854781</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331512</v>
+        <v>30.10361504217573</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>149.9011554453915</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.02912708615102812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.9969747722421582</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998315</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864569</v>
+        <v>0.9969266524856476</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389994</v>
+        <v>30.10361504217562</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>142.9557126462243</v>
+        <v>149.9011554454083</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.882727076151673</v>
+        <v>0.9969747722422708</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998312</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848256</v>
+        <v>0.996926652485704</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>30.10361504217558</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>142.9557126464337</v>
+        <v>149.9011554454139</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.882727076151673</v>
+        <v>0.9969747722422709</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998312</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9969266524857043</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409485</v>
+        <v>30.10361504217557</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>142.9557126464337</v>
+        <v>149.9011554454139</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.04644035502898</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930524043</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.056483578504419</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422531</v>
+        <v>25.19344255463714</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430314795</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>155.0644057925448</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>4.759664277973545</v>
       </c>
       <c r="D3">
-        <v>3.634748069092453</v>
+        <v>4.760239377563606</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>54.95986904280544</v>
       </c>
       <c r="G3">
-        <v>41.97045552254</v>
+        <v>54.9665097208681</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467565</v>
+        <v>0.9516878541350609</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9516878541356094</v>
       </c>
       <c r="Q3">
-        <v>-9.283488353327417</v>
+        <v>0.002000334281542878</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>-179.9979996657095</v>
       </c>
       <c r="T3">
-        <v>2.917997876526144</v>
+        <v>0.01628244175788925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120122</v>
+        <v>0.9516878541083325</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750355</v>
+        <v>0.9516878541624224</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423893</v>
+        <v>0.002000335704756257</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>-179.9979996671274</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.870841618500429</v>
+        <v>0.9516878540994227</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836062</v>
+        <v>0.9516878541713601</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789398</v>
+        <v>0.002000336179151141</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>-179.9979996676</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.870841618500429</v>
+        <v>0.9516878540994226</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836063</v>
+        <v>0.9516878541713601</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789415</v>
+        <v>0.002000336179150749</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>-179.9979996676</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.04644035502898</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930524043</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.056483578504419</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422531</v>
+        <v>25.19344255463714</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430314795</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>155.0644057925448</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>4.759664277973545</v>
       </c>
       <c r="D3">
-        <v>3.634748069092453</v>
+        <v>4.760239377563606</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>54.95986904280544</v>
       </c>
       <c r="G3">
-        <v>41.97045552254</v>
+        <v>54.9665097208681</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467565</v>
+        <v>0.9516878541350609</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9516878541356094</v>
       </c>
       <c r="Q3">
-        <v>-9.283488353327417</v>
+        <v>0.002000334281542878</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>-179.9979996657095</v>
       </c>
       <c r="T3">
-        <v>2.917997876526144</v>
+        <v>0.01628244175788925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120122</v>
+        <v>0.9516878541083325</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750355</v>
+        <v>0.9516878541624224</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423893</v>
+        <v>0.002000335704756257</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>-179.9979996671274</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.870841618500429</v>
+        <v>0.9516878540994227</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836062</v>
+        <v>0.9516878541713601</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789398</v>
+        <v>0.002000336179151141</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>-179.9979996676</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.870841618500429</v>
+        <v>0.9516878540994226</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836063</v>
+        <v>0.9516878541713601</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789415</v>
+        <v>0.002000336179150749</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>-179.9979996676</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088142600877449</v>
+        <v>1.099825345870475</v>
       </c>
       <c r="O2">
-        <v>1.052967690033747</v>
+        <v>1.052967690033165</v>
       </c>
       <c r="P2">
-        <v>1.073420542971325</v>
+        <v>1.076605327209939</v>
       </c>
       <c r="Q2">
-        <v>28.40667986457017</v>
+        <v>28.59134117504757</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238048</v>
+        <v>-91.44286082238177</v>
       </c>
       <c r="S2">
-        <v>150.106877722634</v>
+        <v>150.7347439766826</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.484195649880106</v>
+        <v>1.229183874577053</v>
       </c>
       <c r="D3">
-        <v>1.211666286235113</v>
+        <v>1.238215997417397</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.13801515976701</v>
+        <v>14.19339281741218</v>
       </c>
       <c r="G3">
-        <v>13.99111713051673</v>
+        <v>14.2976867884767</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>1.056537320427519</v>
+        <v>1.113948874963078</v>
       </c>
       <c r="O3">
-        <v>0.8723446855807017</v>
+        <v>0.872344685579625</v>
       </c>
       <c r="P3">
-        <v>0.9600343016410946</v>
+        <v>0.975219190014143</v>
       </c>
       <c r="Q3">
-        <v>21.17428113068096</v>
+        <v>22.67913988028387</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396145</v>
+        <v>-100.0510163396282</v>
       </c>
       <c r="S3">
-        <v>150.1850824569241</v>
+        <v>153.8729088385149</v>
       </c>
       <c r="T3">
-        <v>1.119849020604905</v>
+        <v>0.01617726431299523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.056537320420606</v>
+        <v>1.113948874955272</v>
       </c>
       <c r="O4">
-        <v>0.872344685580399</v>
+        <v>0.8723446855793225</v>
       </c>
       <c r="P4">
-        <v>0.96003430164727</v>
+        <v>0.9752191900230049</v>
       </c>
       <c r="Q4">
-        <v>21.17428113115402</v>
+        <v>22.67913988053577</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383996</v>
+        <v>-100.0510163384134</v>
       </c>
       <c r="S4">
-        <v>150.1850824573215</v>
+        <v>153.8729088386773</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.056537320418302</v>
+        <v>1.11394887495267</v>
       </c>
       <c r="O5">
-        <v>0.8723446855802981</v>
+        <v>0.8723446855792215</v>
       </c>
       <c r="P5">
-        <v>0.9600343016493282</v>
+        <v>0.9752191900259591</v>
       </c>
       <c r="Q5">
-        <v>21.17428113131172</v>
+        <v>22.67913988061974</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163380085</v>
       </c>
       <c r="S5">
-        <v>150.185082457454</v>
+        <v>153.8729088387314</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.056537320418301</v>
+        <v>1.11394887495267</v>
       </c>
       <c r="O6">
-        <v>0.8723446855802981</v>
+        <v>0.8723446855792216</v>
       </c>
       <c r="P6">
-        <v>0.9600343016493282</v>
+        <v>0.9752191900259591</v>
       </c>
       <c r="Q6">
-        <v>21.17428113131172</v>
+        <v>22.67913988061974</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163380085</v>
       </c>
       <c r="S6">
-        <v>150.185082457454</v>
+        <v>153.8729088387314</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088142600877449</v>
+        <v>1.099825345870475</v>
       </c>
       <c r="O2">
-        <v>1.052967690033747</v>
+        <v>1.052967690033165</v>
       </c>
       <c r="P2">
-        <v>1.073420542971325</v>
+        <v>1.076605327209939</v>
       </c>
       <c r="Q2">
-        <v>28.40667986457017</v>
+        <v>28.59134117504757</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238048</v>
+        <v>-91.44286082238177</v>
       </c>
       <c r="S2">
-        <v>150.106877722634</v>
+        <v>150.7347439766826</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.484195649880106</v>
+        <v>1.229183874577053</v>
       </c>
       <c r="D3">
-        <v>1.211666286235113</v>
+        <v>1.238215997417397</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.13801515976701</v>
+        <v>14.19339281741218</v>
       </c>
       <c r="G3">
-        <v>13.99111713051673</v>
+        <v>14.2976867884767</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>1.056537320427519</v>
+        <v>1.113948874963078</v>
       </c>
       <c r="O3">
-        <v>0.8723446855807017</v>
+        <v>0.872344685579625</v>
       </c>
       <c r="P3">
-        <v>0.9600343016410946</v>
+        <v>0.975219190014143</v>
       </c>
       <c r="Q3">
-        <v>21.17428113068096</v>
+        <v>22.67913988028387</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396145</v>
+        <v>-100.0510163396282</v>
       </c>
       <c r="S3">
-        <v>150.1850824569241</v>
+        <v>153.8729088385149</v>
       </c>
       <c r="T3">
-        <v>1.119849020604905</v>
+        <v>0.01617726431299523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.056537320420606</v>
+        <v>1.113948874955272</v>
       </c>
       <c r="O4">
-        <v>0.872344685580399</v>
+        <v>0.8723446855793225</v>
       </c>
       <c r="P4">
-        <v>0.96003430164727</v>
+        <v>0.9752191900230049</v>
       </c>
       <c r="Q4">
-        <v>21.17428113115402</v>
+        <v>22.67913988053577</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383996</v>
+        <v>-100.0510163384134</v>
       </c>
       <c r="S4">
-        <v>150.1850824573215</v>
+        <v>153.8729088386773</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.056537320418302</v>
+        <v>1.11394887495267</v>
       </c>
       <c r="O5">
-        <v>0.8723446855802981</v>
+        <v>0.8723446855792215</v>
       </c>
       <c r="P5">
-        <v>0.9600343016493282</v>
+        <v>0.9752191900259591</v>
       </c>
       <c r="Q5">
-        <v>21.17428113131172</v>
+        <v>22.67913988061974</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163380085</v>
       </c>
       <c r="S5">
-        <v>150.185082457454</v>
+        <v>153.8729088387314</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.056537320418301</v>
+        <v>1.11394887495267</v>
       </c>
       <c r="O6">
-        <v>0.8723446855802981</v>
+        <v>0.8723446855792216</v>
       </c>
       <c r="P6">
-        <v>0.9600343016493282</v>
+        <v>0.9752191900259591</v>
       </c>
       <c r="Q6">
-        <v>21.17428113131172</v>
+        <v>22.67913988061974</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163380085</v>
       </c>
       <c r="S6">
-        <v>150.185082457454</v>
+        <v>153.8729088387314</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169504</v>
+        <v>0.9475617480079083</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232739441</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541356</v>
+        <v>0.957309699024839</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161584</v>
+        <v>24.75704903532526</v>
       </c>
       <c r="R2">
-        <v>-89.224926238975</v>
+        <v>-89.2249262389704</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>155.5136061413303</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.13349858042777</v>
       </c>
       <c r="D3">
-        <v>3.420873634629112</v>
+        <v>4.133883836060569</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>47.72953036209818</v>
       </c>
       <c r="G3">
-        <v>39.50084627633623</v>
+        <v>47.73397891096425</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023534</v>
+        <v>0.8651305921044512</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022646</v>
+        <v>0.8651305921045777</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578567</v>
+        <v>0.001543097390911806</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793317</v>
+        <v>-179.9984569026639</v>
       </c>
       <c r="T3">
-        <v>1.541818903287513</v>
+        <v>0.01480049713822986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713345</v>
+        <v>0.8651305920801891</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.838320383128255</v>
+        <v>0.8651305921289884</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367663</v>
+        <v>0.001543100121237779</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.010125577291</v>
+        <v>-179.9984569053887</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609931</v>
+        <v>0.8651305920721016</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369178</v>
+        <v>0.8651305921371252</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297383</v>
+        <v>0.001543101031339056</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766108</v>
+        <v>-179.998456906297</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609931</v>
+        <v>0.8651305920721016</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369178</v>
+        <v>0.8651305921371252</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297388</v>
+        <v>0.001543101031340814</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766108</v>
+        <v>-179.998456906297</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169504</v>
+        <v>0.9475617480079083</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232739441</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541356</v>
+        <v>0.957309699024839</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161584</v>
+        <v>24.75704903532526</v>
       </c>
       <c r="R2">
-        <v>-89.224926238975</v>
+        <v>-89.2249262389704</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>155.5136061413303</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.13349858042777</v>
       </c>
       <c r="D3">
-        <v>3.420873634629112</v>
+        <v>4.133883836060569</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>47.72953036209818</v>
       </c>
       <c r="G3">
-        <v>39.50084627633623</v>
+        <v>47.73397891096425</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023534</v>
+        <v>0.8651305921044512</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022646</v>
+        <v>0.8651305921045777</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578567</v>
+        <v>0.001543097390911806</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793317</v>
+        <v>-179.9984569026639</v>
       </c>
       <c r="T3">
-        <v>1.541818903287513</v>
+        <v>0.01480049713822986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713345</v>
+        <v>0.8651305920801891</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.838320383128255</v>
+        <v>0.8651305921289884</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367663</v>
+        <v>0.001543100121237779</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.010125577291</v>
+        <v>-179.9984569053887</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609931</v>
+        <v>0.8651305920721016</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369178</v>
+        <v>0.8651305921371252</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297383</v>
+        <v>0.001543101031339056</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766108</v>
+        <v>-179.998456906297</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609931</v>
+        <v>0.8651305920721016</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369178</v>
+        <v>0.8651305921371252</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297388</v>
+        <v>0.001543101031340814</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766108</v>
+        <v>-179.998456906297</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9906071603375056</v>
+        <v>0.9996899523648567</v>
       </c>
       <c r="O2">
-        <v>0.951784480252284</v>
+        <v>0.9517844802529023</v>
       </c>
       <c r="P2">
-        <v>0.975085074261915</v>
+        <v>0.9761822854516458</v>
       </c>
       <c r="Q2">
-        <v>28.16032573231858</v>
+        <v>28.41562995108194</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281261</v>
+        <v>-91.61401138281131</v>
       </c>
       <c r="S2">
-        <v>150.2468850048779</v>
+        <v>150.8369544842403</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.332307398888864</v>
+        <v>1.105961813031821</v>
       </c>
       <c r="D3">
-        <v>1.011025655018907</v>
+        <v>1.113969414135715</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38416070783632</v>
+        <v>12.77054700934736</v>
       </c>
       <c r="G3">
-        <v>11.67431868165567</v>
+        <v>12.86301082240529</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>0.9727552564516329</v>
+        <v>1.012471940259249</v>
       </c>
       <c r="O3">
-        <v>0.7848521014138393</v>
+        <v>0.7848521014139</v>
       </c>
       <c r="P3">
-        <v>0.8786293331945181</v>
+        <v>0.8830733956138935</v>
       </c>
       <c r="Q3">
-        <v>20.76298901305287</v>
+        <v>22.41027918354421</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786944</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>150.9154060545281</v>
+        <v>154.083573155876</v>
       </c>
       <c r="T3">
-        <v>0.8163878929598345</v>
+        <v>0.0147039557766028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9727552564449908</v>
+        <v>1.01247194025107</v>
       </c>
       <c r="O4">
-        <v>0.784852101421415</v>
+        <v>0.784852101421476</v>
       </c>
       <c r="P4">
-        <v>0.8786293332052801</v>
+        <v>0.8830733956267814</v>
       </c>
       <c r="Q4">
-        <v>20.76298901387266</v>
+        <v>22.41027918410137</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769022</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>150.9154060548271</v>
+        <v>154.0835731558567</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9727552564427761</v>
+        <v>1.012471940248344</v>
       </c>
       <c r="O5">
-        <v>0.7848521014239401</v>
+        <v>0.7848521014240014</v>
       </c>
       <c r="P5">
-        <v>0.8786293332088672</v>
+        <v>0.8830733956310773</v>
       </c>
       <c r="Q5">
-        <v>20.76298901414594</v>
+        <v>22.41027918428708</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>150.9154060549267</v>
+        <v>154.0835731558502</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9727552564427761</v>
+        <v>1.012471940248344</v>
       </c>
       <c r="O6">
-        <v>0.7848521014239402</v>
+        <v>0.7848521014240014</v>
       </c>
       <c r="P6">
-        <v>0.8786293332088672</v>
+        <v>0.8830733956310773</v>
       </c>
       <c r="Q6">
-        <v>20.76298901414594</v>
+        <v>22.41027918428709</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>150.9154060549267</v>
+        <v>154.0835731558502</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9906071603375056</v>
+        <v>0.9996899523648567</v>
       </c>
       <c r="O2">
-        <v>0.951784480252284</v>
+        <v>0.9517844802529023</v>
       </c>
       <c r="P2">
-        <v>0.975085074261915</v>
+        <v>0.9761822854516458</v>
       </c>
       <c r="Q2">
-        <v>28.16032573231858</v>
+        <v>28.41562995108194</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281261</v>
+        <v>-91.61401138281131</v>
       </c>
       <c r="S2">
-        <v>150.2468850048779</v>
+        <v>150.8369544842403</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.332307398888864</v>
+        <v>1.105961813031821</v>
       </c>
       <c r="D3">
-        <v>1.011025655018907</v>
+        <v>1.113969414135715</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38416070783632</v>
+        <v>12.77054700934736</v>
       </c>
       <c r="G3">
-        <v>11.67431868165567</v>
+        <v>12.86301082240529</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>25.29766483227706</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>1168.782380542722</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594255103</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540583745</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594799237</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540662189</v>
       </c>
       <c r="N3">
-        <v>0.9727552564516329</v>
+        <v>1.012471940259249</v>
       </c>
       <c r="O3">
-        <v>0.7848521014138393</v>
+        <v>0.7848521014139</v>
       </c>
       <c r="P3">
-        <v>0.8786293331945181</v>
+        <v>0.8830733956138935</v>
       </c>
       <c r="Q3">
-        <v>20.76298901305287</v>
+        <v>22.41027918354421</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786944</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>150.9154060545281</v>
+        <v>154.083573155876</v>
       </c>
       <c r="T3">
-        <v>0.8163878929598345</v>
+        <v>0.0147039557766028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9727552564449908</v>
+        <v>1.01247194025107</v>
       </c>
       <c r="O4">
-        <v>0.784852101421415</v>
+        <v>0.784852101421476</v>
       </c>
       <c r="P4">
-        <v>0.8786293332052801</v>
+        <v>0.8830733956267814</v>
       </c>
       <c r="Q4">
-        <v>20.76298901387266</v>
+        <v>22.41027918410137</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769022</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>150.9154060548271</v>
+        <v>154.0835731558567</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9727552564427761</v>
+        <v>1.012471940248344</v>
       </c>
       <c r="O5">
-        <v>0.7848521014239401</v>
+        <v>0.7848521014240014</v>
       </c>
       <c r="P5">
-        <v>0.8786293332088672</v>
+        <v>0.8830733956310773</v>
       </c>
       <c r="Q5">
-        <v>20.76298901414594</v>
+        <v>22.41027918428708</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>150.9154060549267</v>
+        <v>154.0835731558502</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9727552564427761</v>
+        <v>1.012471940248344</v>
       </c>
       <c r="O6">
-        <v>0.7848521014239402</v>
+        <v>0.7848521014240014</v>
       </c>
       <c r="P6">
-        <v>0.8786293332088672</v>
+        <v>0.8830733956310773</v>
       </c>
       <c r="Q6">
-        <v>20.76298901414594</v>
+        <v>22.41027918428709</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>150.9154060549267</v>
+        <v>154.0835731558502</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068049951</v>
+        <v>1.046595068049952</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.8909260930523909</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165218</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033979</v>
+        <v>25.18850204034001</v>
       </c>
       <c r="R2">
         <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071882991</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248669</v>
       </c>
       <c r="D3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248669</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950497</v>
       </c>
       <c r="G3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950497</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>13.17681208329902</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>1168.900101563067</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319053455938</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694517406</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054226022</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694628973</v>
       </c>
       <c r="N3">
-        <v>0.952627964802082</v>
+        <v>0.9526279648020808</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025194</v>
+        <v>0.9526279648025212</v>
       </c>
       <c r="Q3">
-        <v>-4.010741462182681E-12</v>
+        <v>-2.640580403030998E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999913</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753109</v>
+        <v>0.9526279647753094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292907</v>
+        <v>0.952627964829293</v>
       </c>
       <c r="Q4">
-        <v>1.41510081469633E-09</v>
+        <v>1.416456164062037E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.999999998575</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663854</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382169</v>
       </c>
       <c r="Q5">
-        <v>1.888139238429756E-09</v>
+        <v>1.889483377866892E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981019</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663871</v>
+        <v>0.9526279647663854</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382169</v>
       </c>
       <c r="Q6">
-        <v>1.888163762621318E-09</v>
+        <v>1.889494626529075E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981034</v>
+        <v>179.9999999981019</v>
       </c>
     </row>
   </sheetData>
